--- a/strategies/backtest/backtest_analytics.xlsx
+++ b/strategies/backtest/backtest_analytics.xlsx
@@ -106,10 +106,10 @@
     <t>Sortino Ratio</t>
   </si>
   <si>
-    <t>2022-12-31 22:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2023-03-31 22:00:00+00:00</t>
+    <t>2022-02-28 22:00:00+00:00</t>
+  </si>
+  <si>
+    <t>2022-04-30 22:00:00+00:00</t>
   </si>
 </sst>
 </file>
@@ -525,7 +525,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="2">
-        <v>90.02083333333333</v>
+        <v>61.02083333333334</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -541,7 +541,7 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>995.9727158054875</v>
+        <v>849.1838508773981</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -549,7 +549,7 @@
         <v>6</v>
       </c>
       <c r="B12">
-        <v>2065.172452614874</v>
+        <v>1511.162954906896</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="B13">
-        <v>1627.285175558871</v>
+        <v>906.5697140756574</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -565,7 +565,7 @@
         <v>8</v>
       </c>
       <c r="B14">
-        <v>62.72851755588713</v>
+        <v>-9.343028592434258</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -573,7 +573,7 @@
         <v>9</v>
       </c>
       <c r="B15">
-        <v>72.67279863741084</v>
+        <v>-8.496734211215751</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -581,7 +581,7 @@
         <v>10</v>
       </c>
       <c r="B16">
-        <v>99.56028697060866</v>
+        <v>99.351314441789</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -597,7 +597,7 @@
         <v>12</v>
       </c>
       <c r="B18">
-        <v>37.57865050961668</v>
+        <v>40.00847419320755</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -605,7 +605,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="2">
-        <v>39.47916666666666</v>
+        <v>28.375</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -613,7 +613,7 @@
         <v>14</v>
       </c>
       <c r="B20">
-        <v>1491</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -621,7 +621,7 @@
         <v>15</v>
       </c>
       <c r="B21">
-        <v>2.594194012549934</v>
+        <v>2.656739227675053</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -629,7 +629,7 @@
         <v>16</v>
       </c>
       <c r="B22">
-        <v>727</v>
+        <v>816</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -637,7 +637,7 @@
         <v>17</v>
       </c>
       <c r="B23">
-        <v>95.86410635155096</v>
+        <v>76.48578811369508</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -645,7 +645,7 @@
         <v>18</v>
       </c>
       <c r="B24">
-        <v>184.4485094923349</v>
+        <v>200.0288318897005</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -653,7 +653,7 @@
         <v>19</v>
       </c>
       <c r="B25">
-        <v>-1.279602026144586</v>
+        <v>-20.7987826666201</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -661,7 +661,7 @@
         <v>20</v>
       </c>
       <c r="B26">
-        <v>47.6657783013824</v>
+        <v>41.35031392383708</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -669,7 +669,7 @@
         <v>21</v>
       </c>
       <c r="B27">
-        <v>-0.4406529206781991</v>
+        <v>-6.51309884355514</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -677,7 +677,7 @@
         <v>22</v>
       </c>
       <c r="B28" s="2">
-        <v>20.43123842592593</v>
+        <v>18.82065972222222</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -685,7 +685,7 @@
         <v>23</v>
       </c>
       <c r="B29" s="2">
-        <v>2.869039351851852</v>
+        <v>17.04303240740741</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -693,7 +693,7 @@
         <v>24</v>
       </c>
       <c r="B30">
-        <v>8852.561040681734</v>
+        <v>34.75842888711965</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -701,7 +701,7 @@
         <v>25</v>
       </c>
       <c r="B31">
-        <v>0.450358281593515</v>
+        <v>0.2711893098421583</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -709,7 +709,7 @@
         <v>26</v>
       </c>
       <c r="B32">
-        <v>2.812247154562614</v>
+        <v>-0.4456870373911975</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -717,7 +717,7 @@
         <v>27</v>
       </c>
       <c r="B33">
-        <v>16.50189253408959</v>
+        <v>-1.10938785078906</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -725,7 +725,7 @@
         <v>28</v>
       </c>
       <c r="B34">
-        <v>1.064443894250329</v>
+        <v>0.9907732956808272</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -733,7 +733,7 @@
         <v>29</v>
       </c>
       <c r="B35">
-        <v>3.786558232248888</v>
+        <v>-0.5893333603968041</v>
       </c>
     </row>
   </sheetData>

--- a/strategies/backtest/backtest_analytics.xlsx
+++ b/strategies/backtest/backtest_analytics.xlsx
@@ -7,17 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>30min_rl_tf</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Start</t>
   </si>
@@ -106,16 +103,31 @@
     <t>Sortino Ratio</t>
   </si>
   <si>
-    <t>2022-02-28 22:00:00+00:00</t>
-  </si>
-  <si>
-    <t>2022-04-30 22:00:00+00:00</t>
+    <t>on</t>
+  </si>
+  <si>
+    <t>args_2</t>
+  </si>
+  <si>
+    <t>args_3</t>
+  </si>
+  <si>
+    <t>args_4</t>
+  </si>
+  <si>
+    <t>args_5</t>
+  </si>
+  <si>
+    <t>1h_rl_tf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -168,11 +180,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -468,275 +484,329 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:AH3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="703" width="9.140625"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:34" s="1" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1">
+    <row r="2" spans="1:34">
+      <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2">
         <v>20</v>
       </c>
+      <c r="C2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3">
+        <v>44196.91666666666</v>
+      </c>
+      <c r="G2" s="3">
+        <v>45016.91666666666</v>
+      </c>
+      <c r="H2" s="4">
+        <v>820.0416666666666</v>
+      </c>
+      <c r="I2">
+        <v>1000</v>
+      </c>
+      <c r="J2">
+        <v>975.1749483917444</v>
+      </c>
+      <c r="K2">
+        <v>5476.567948266689</v>
+      </c>
+      <c r="L2">
+        <v>2245.210626225371</v>
+      </c>
+      <c r="M2">
+        <v>124.5210626225371</v>
+      </c>
+      <c r="N2">
+        <v>-2.016506034622056</v>
+      </c>
+      <c r="O2">
+        <v>99.90346019003098</v>
+      </c>
+      <c r="P2">
+        <v>100</v>
+      </c>
+      <c r="Q2">
+        <v>78.20385714227926</v>
+      </c>
+      <c r="R2" s="4">
+        <v>506.2916666666667</v>
+      </c>
+      <c r="S2">
+        <v>78642</v>
+      </c>
+      <c r="T2">
+        <v>145.3983487473543</v>
+      </c>
+      <c r="U2">
+        <v>38648</v>
+      </c>
+      <c r="V2">
+        <v>45.07038608839665</v>
+      </c>
+      <c r="W2">
+        <v>184.7803826638111</v>
+      </c>
+      <c r="X2">
+        <v>-52.86479193050879</v>
+      </c>
+      <c r="Y2">
+        <v>14.06281685622692</v>
+      </c>
+      <c r="Z2">
+        <v>-12.39953064722209</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>374.0725694444445</v>
+      </c>
+      <c r="AB2" s="4">
+        <v>441.993900462963</v>
+      </c>
+      <c r="AC2">
+        <v>1.196080895201401</v>
+      </c>
+      <c r="AD2">
+        <v>0.0263390392869475</v>
+      </c>
+      <c r="AE2">
+        <v>0.8536592913890321</v>
+      </c>
+      <c r="AF2">
+        <v>0.5540951096248394</v>
+      </c>
+      <c r="AG2">
+        <v>1.029413070161018</v>
+      </c>
+      <c r="AH2">
+        <v>1.175753259273601</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="b">
+    <row r="3" spans="1:34">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="b">
+      <c r="D3" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1">
+      <c r="E3" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2">
-        <v>61.02083333333334</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10">
+      <c r="F3" s="3">
+        <v>44196.91666666666</v>
+      </c>
+      <c r="G3" s="3">
+        <v>45016.91666666666</v>
+      </c>
+      <c r="H3" s="4">
+        <v>820.0416666666666</v>
+      </c>
+      <c r="I3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>849.1838508773981</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>1511.162954906896</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>906.5697140756574</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14">
-        <v>-9.343028592434258</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15">
-        <v>-8.496734211215751</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16">
-        <v>99.351314441789</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17">
+      <c r="J3">
+        <v>984.377386274296</v>
+      </c>
+      <c r="K3">
+        <v>5528.248701998749</v>
+      </c>
+      <c r="L3">
+        <v>2266.398016192784</v>
+      </c>
+      <c r="M3">
+        <v>126.6398016192784</v>
+      </c>
+      <c r="N3">
+        <v>-2.016506034622056</v>
+      </c>
+      <c r="O3">
+        <v>99.87805497688126</v>
+      </c>
+      <c r="P3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18">
-        <v>40.00847419320755</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="2">
-        <v>28.375</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20">
-        <v>1709</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21">
-        <v>2.656739227675053</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23">
-        <v>76.48578811369508</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24">
-        <v>200.0288318897005</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25">
-        <v>-20.7987826666201</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26">
-        <v>41.35031392383708</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27">
-        <v>-6.51309884355514</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="2">
-        <v>18.82065972222222</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="2">
-        <v>17.04303240740741</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30">
-        <v>34.75842888711965</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31">
-        <v>0.2711893098421583</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32">
-        <v>-0.4456870373911975</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33">
-        <v>-1.10938785078906</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34">
-        <v>0.9907732956808272</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35">
-        <v>-0.5893333603968041</v>
+      <c r="Q3">
+        <v>78.20385712831769</v>
+      </c>
+      <c r="R3" s="4">
+        <v>506.2916666666667</v>
+      </c>
+      <c r="S3">
+        <v>78622</v>
+      </c>
+      <c r="T3">
+        <v>146.7491477120172</v>
+      </c>
+      <c r="U3">
+        <v>38635</v>
+      </c>
+      <c r="V3">
+        <v>45.14250213559059</v>
+      </c>
+      <c r="W3">
+        <v>184.8220621751026</v>
+      </c>
+      <c r="X3">
+        <v>-52.86479189018824</v>
+      </c>
+      <c r="Y3">
+        <v>14.07592854468421</v>
+      </c>
+      <c r="Z3">
+        <v>-12.4146109519668</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>373.4031828703704</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>442.5065509259259</v>
+      </c>
+      <c r="AC3">
+        <v>1.19794525927677</v>
+      </c>
+      <c r="AD3">
+        <v>0.02684081809177508</v>
+      </c>
+      <c r="AE3">
+        <v>0.8582853528987343</v>
+      </c>
+      <c r="AF3">
+        <v>0.5617733272775991</v>
+      </c>
+      <c r="AG3">
+        <v>1.029579086939876</v>
+      </c>
+      <c r="AH3">
+        <v>1.182153912454695</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>